--- a/medicine/Mort/Campo_da_Rata/Campo_da_Rata.xlsx
+++ b/medicine/Mort/Campo_da_Rata/Campo_da_Rata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Campo da Rata est un lieu de mémoire de la guerre d'Espagne, situé dans la ville de La Corogne, en Galice, à proximité du quartier de Durmideiras, près de la tour d'Hercule, face à l'océan Atlantique.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après le coup d'État nationaliste du 18 juillet 1936 et dans les années qui suivent, plusieurs centaines de prisonniers sont fusillés dans la région, pour la plupart républicains et syndicalistes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le coup d'État nationaliste du 18 juillet 1936 et dans les années qui suivent, plusieurs centaines de prisonniers sont fusillés dans la région, pour la plupart républicains et syndicalistes.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mémorial est inauguré en 2001. Œuvre d'Isaac Díaz Pardo, il rend hommage aux victimes de la répression franquiste.
 Composé de blocs de granit, il comporte l'inscription suivante :
 « Inmolados nestes campos frente ao mar tenebroso por amar causas xustas. »
 Deux poèmes figurent sur le mémorial, l'un de Federico García Lorca et l'autre d'Uxío Carré Alvarellos.
-Il est complété par une deuxième œuvre, Les Menhirs pour la Paix,  du sculpteur Manolo Paz[2].
+Il est complété par une deuxième œuvre, Les Menhirs pour la Paix,  du sculpteur Manolo Paz.
 Le site fait partie du parc des sculptures de la tour d'Hercule.
 </t>
         </is>
